--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PirrrDaFag\Documents\GitHub\CodeQRUltimate.github.io\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PirrrDaFag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DA780-D5C3-4F9B-9980-36582CACE950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C44A5E-88CD-4009-934C-B44B737BBA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
+    <workbookView xWindow="1875" yWindow="690" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="245">
   <si>
     <t>DataOrigin</t>
   </si>
@@ -358,7 +358,421 @@
     <t>Ligue d'été du dimanche soir</t>
   </si>
   <si>
-    <t>2, 5</t>
+    <t>5v5M-A2021</t>
+  </si>
+  <si>
+    <t>Alignement automne 5c5 mixte récréatif</t>
+  </si>
+  <si>
+    <t>Line-up Fall 5v5 mixed league</t>
+  </si>
+  <si>
+    <t>https://ugm.ultimatecentral.com/en_ca/e/ligues-rcratives-automne-2021/standings/division/Montr%C3%A9al+Lundi+-+Coll%C3%A8ge+Bois-de-Boulogne</t>
+  </si>
+  <si>
+    <t>3,5,7,13,36,45,53,55,66,88</t>
+  </si>
+  <si>
+    <t>2,5,7,10,27,36,45,53,66,88</t>
+  </si>
+  <si>
+    <t>5v5M-E2020</t>
+  </si>
+  <si>
+    <t>https://ugm.ultimatecentral.com/en_ca/e/saison-estivale-2020/standings/division/5c5+Montr%C3%A9al+Dimanche+-+Forbes</t>
+  </si>
+  <si>
+    <t>2,5,25,27,36,45,53,66,88</t>
+  </si>
+  <si>
+    <t>Johanie</t>
+  </si>
+  <si>
+    <t>Gonneville</t>
+  </si>
+  <si>
+    <t>~/img/johaniegonneville1.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NqGslEZ5I6c</t>
+  </si>
+  <si>
+    <t>1991-02-01</t>
+  </si>
+  <si>
+    <t>😂,😍,🥳</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/WnSiCPbtJ1621yam8</t>
+  </si>
+  <si>
+    <t>Denise</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/0lF1vCOKBjs21HtxkGmWIm</t>
+  </si>
+  <si>
+    <t>Clay and Friends</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>Le beach Ultimate 4c4</t>
+  </si>
+  <si>
+    <t>johanieg</t>
+  </si>
+  <si>
+    <t>Dominique</t>
+  </si>
+  <si>
+    <t>Lefebvre</t>
+  </si>
+  <si>
+    <t>~/img/dominiquelefebvre1.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/G7RgN9ijwE4</t>
+  </si>
+  <si>
+    <t>1992-06-27</t>
+  </si>
+  <si>
+    <t>😊,❤,😁</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/oPb5cyuGrhC2y61Q9</t>
+  </si>
+  <si>
+    <t>Ma Poule Mouillée</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1G0YV9WooUBjrwDq0Q7EFK</t>
+  </si>
+  <si>
+    <t>Charlotte Cardin</t>
+  </si>
+  <si>
+    <t>Scoober</t>
+  </si>
+  <si>
+    <t>CUC 2018</t>
+  </si>
+  <si>
+    <t>domlafeve</t>
+  </si>
+  <si>
+    <t>Frédéric</t>
+  </si>
+  <si>
+    <t>Grisé</t>
+  </si>
+  <si>
+    <t>~/img/fredericgrise3.jpg</t>
+  </si>
+  <si>
+    <t>https://simplesondage.com/</t>
+  </si>
+  <si>
+    <t>1994-08-15</t>
+  </si>
+  <si>
+    <t>🙈, 🙉,🙊</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/MvJLSWw1X2NWDtSdA</t>
+  </si>
+  <si>
+    <t>McDonald's</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/56tbeL5xhBPxby544GuK3E</t>
+  </si>
+  <si>
+    <t>Kevin Garrett</t>
+  </si>
+  <si>
+    <t>Chicken Wing</t>
+  </si>
+  <si>
+    <t>Mon claquage</t>
+  </si>
+  <si>
+    <t>fredgrise</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Massé</t>
+  </si>
+  <si>
+    <t>~/img/evemasse1.jpg</t>
+  </si>
+  <si>
+    <t>XXXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/HZUZiJivoceAUGXeA</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/7Ln80lUS6He07XvHI8qqHH</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>evemasseofficiel</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>~/img/kevinchen1.jpg</t>
+  </si>
+  <si>
+    <t>https://www.spca.com/donnez</t>
+  </si>
+  <si>
+    <t>1989-06-27</t>
+  </si>
+  <si>
+    <t>👌,😂,👏</t>
+  </si>
+  <si>
+    <t>Joe Beef</t>
+  </si>
+  <si>
+    <t>Arctic Monkeys</t>
+  </si>
+  <si>
+    <t>Flick</t>
+  </si>
+  <si>
+    <t>Sky Quentin Bonnaud dans un match compétitif avec Rage</t>
+  </si>
+  <si>
+    <t>kaiminchen</t>
+  </si>
+  <si>
+    <t>Maxime</t>
+  </si>
+  <si>
+    <t>Jacquemont</t>
+  </si>
+  <si>
+    <t>~/img/maximejacquemont2.jpg</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>1994-06-28</t>
+  </si>
+  <si>
+    <t>😛,😅,😂</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/m4CRGhZUUtUhS5AE9</t>
+  </si>
+  <si>
+    <t>Sol y Mar Restaurant</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/7Lyu0d2vAHXmXtMV624Nfv?si=c93544f85eb24ec3</t>
+  </si>
+  <si>
+    <t>Fauve</t>
+  </si>
+  <si>
+    <t>High Release</t>
+  </si>
+  <si>
+    <t>Gaspé</t>
+  </si>
+  <si>
+    <t>max.jackk</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Boisvert-Désilets</t>
+  </si>
+  <si>
+    <t>~/img/mathieuboisvertdesilets2.jpg</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QsQYrW0Cc5Y</t>
+  </si>
+  <si>
+    <t>1991-08-17</t>
+  </si>
+  <si>
+    <t>🙋‍♂️,🦦,🙅‍♂️</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1r4hJ1h58CWwUQe3MxPuau</t>
+  </si>
+  <si>
+    <t>Maluma</t>
+  </si>
+  <si>
+    <t>Push Pass</t>
+  </si>
+  <si>
+    <t>mathboisvert</t>
+  </si>
+  <si>
+    <t>Ludovic</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>~/img/ludoviccao2.jpg</t>
+  </si>
+  <si>
+    <t>https://tinder.com/@ludoviccao</t>
+  </si>
+  <si>
+    <t>1993-12-19</t>
+  </si>
+  <si>
+    <t>🤦‍♀️,🤷‍♀️,✌</t>
+  </si>
+  <si>
+    <t>https://g.page/restolola45?share</t>
+  </si>
+  <si>
+    <t>Lola 45</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/100sLnojEpcadRx4edEBA6</t>
+  </si>
+  <si>
+    <t>Zella Day</t>
+  </si>
+  <si>
+    <t>Reverse Haxi Maxi</t>
+  </si>
+  <si>
+    <t>Lancer une longue passe d'une zone de but à une autre à mon amie Marie-Hélène, défendue par Quentin Bonnaud (MVP Royal 2019) en point Universe, gagnant la dernière partie de la saison récréative d'hiver</t>
+  </si>
+  <si>
+    <t>ludovic.cao</t>
+  </si>
+  <si>
+    <t>Joëlle</t>
+  </si>
+  <si>
+    <t>Laferrière</t>
+  </si>
+  <si>
+    <t>~/img/joellelaferriere2.jpg</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>1995-02-08</t>
+  </si>
+  <si>
+    <t>joellelaf</t>
+  </si>
+  <si>
+    <t>Nalini</t>
+  </si>
+  <si>
+    <t>Gascon</t>
+  </si>
+  <si>
+    <t>~/img/nalinigascon2.jpg</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/5626KdflSKfeDK7RJQfSrE</t>
+  </si>
+  <si>
+    <t>1996-01-17</t>
+  </si>
+  <si>
+    <t>👌,🔥,🍀</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/S2gsY2xkYQbYQPZJ7</t>
+  </si>
+  <si>
+    <t>Satay Brothers</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1Dt1UKLtrJIW1xxRBejjos</t>
+  </si>
+  <si>
+    <t>The Blaze</t>
+  </si>
+  <si>
+    <t>High-release backhand dans le côté bris</t>
+  </si>
+  <si>
+    <t>Championnat d'Europe des Clubs 2019 en Italie</t>
+  </si>
+  <si>
+    <t>nalinigascon</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Drouin</t>
+  </si>
+  <si>
+    <t>~/img/raphaeldrouin3.jpg</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3oAAi8c</t>
+  </si>
+  <si>
+    <t>1994-12-06</t>
+  </si>
+  <si>
+    <t>😘,💩,🍺</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/Qoa6NH8MXp4DqNdbA</t>
+  </si>
+  <si>
+    <t>Aki Sushi</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/6lt3CXKfhLXjYl2VFD6vN4</t>
+  </si>
+  <si>
+    <t>Hammer par-dessus le stack au dernier cutter dans le côté bris</t>
+  </si>
+  <si>
+    <t>Lubalin</t>
+  </si>
+  <si>
+    <t>Premier point de la finale CQU7 2019 contre Loyal. Envoyer un Greatest en chicken wing no look over the shoulder directement dans les mains de mon coéquipier</t>
+  </si>
+  <si>
+    <t>rphldrn</t>
+  </si>
+  <si>
+    <t>leabeauchampy</t>
+  </si>
+  <si>
+    <t>Comm constru</t>
   </si>
 </sst>
 </file>
@@ -443,8 +857,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}" name="Table2" displayName="Table2" ref="A1:F2" totalsRowShown="0">
-  <autoFilter ref="A1:F2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0">
+  <autoFilter ref="A1:F4" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4351D8DD-9558-4605-8262-1875E0227200}" name="Key"/>
     <tableColumn id="2" xr3:uid="{8372E192-9212-416B-AF7D-DAAA9A70E6D0}" name="Year"/>
@@ -458,8 +872,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}" name="Table3" displayName="Table3" ref="A1:Q4" totalsRowShown="0">
-  <autoFilter ref="A1:Q4" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}" name="Table3" displayName="Table3" ref="A1:Q15" totalsRowShown="0">
+  <autoFilter ref="A1:Q15" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E9921A05-41A9-4D66-A3D4-4E9B29A839CB}" name="Number"/>
     <tableColumn id="2" xr3:uid="{4C773954-616C-4A10-9120-74DAAA333B2B}" name="FirstName"/>
@@ -848,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89CEBC-3C19-4A42-9B8A-86C0924A81EF}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,26 +1314,68 @@
         <v>73</v>
       </c>
       <c r="F2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>106</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{04E7B529-6CF4-4D0D-9EE9-8BC4209A7E16}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{E758497A-287B-486F-9126-2EF4ACAD4D48}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{BD26994F-5A7C-4545-8A36-D8771E8B5DE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96815FA3-9421-4216-B9D0-1EAF4A6293D5}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,6 +1492,12 @@
       <c r="M2" t="s">
         <v>68</v>
       </c>
+      <c r="O2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1126,6 +1588,517 @@
       </c>
       <c r="O4" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" t="s">
+        <v>151</v>
+      </c>
+      <c r="O7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M9" t="s">
+        <v>172</v>
+      </c>
+      <c r="O9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>180</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" t="s">
+        <v>185</v>
+      </c>
+      <c r="O10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" t="s">
+        <v>195</v>
+      </c>
+      <c r="M11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>193</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J13" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L13" t="s">
+        <v>226</v>
+      </c>
+      <c r="M13" t="s">
+        <v>227</v>
+      </c>
+      <c r="O13" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J14" t="s">
+        <v>237</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L14" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" t="s">
+        <v>239</v>
+      </c>
+      <c r="O14" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>203</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15" t="s">
+        <v>208</v>
+      </c>
+      <c r="O15" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1139,11 +2112,41 @@
     <hyperlink ref="E4" r:id="rId7" xr:uid="{96B8DB16-0646-4DB1-A1E3-3EA696CAFF1C}"/>
     <hyperlink ref="I4" r:id="rId8" xr:uid="{B99C2BFA-1F74-4ECC-BAC9-30E291F9A122}"/>
     <hyperlink ref="K4" r:id="rId9" xr:uid="{B1CA9067-63AF-40E7-9E27-43C745676407}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{32071409-9780-43F2-8D45-188E725FED28}"/>
+    <hyperlink ref="I5" r:id="rId11" xr:uid="{D753FE92-22D2-4205-A218-FB5F4E3461BA}"/>
+    <hyperlink ref="K5" r:id="rId12" xr:uid="{A3BC5001-7ACF-4DD2-867C-8BEE9E10A729}"/>
+    <hyperlink ref="E6" r:id="rId13" xr:uid="{8483694F-2F29-4B35-A414-B6D34252118F}"/>
+    <hyperlink ref="I6" r:id="rId14" xr:uid="{0885C5C2-3970-4A8E-8A84-6C564EB85A6C}"/>
+    <hyperlink ref="K6" r:id="rId15" xr:uid="{7D7D2446-285D-4523-BB6E-4875943DB74D}"/>
+    <hyperlink ref="E7" r:id="rId16" xr:uid="{9F6EEFA6-6BDB-4EB6-8A9C-8FF0B2B99F31}"/>
+    <hyperlink ref="I7" r:id="rId17" xr:uid="{9C3BD94B-92A4-44ED-94FF-7F50FC3F8A9F}"/>
+    <hyperlink ref="K7" r:id="rId18" xr:uid="{B77DD649-0917-4B10-858E-8573A7FA90BF}"/>
+    <hyperlink ref="I8" r:id="rId19" xr:uid="{8DE0FD80-B157-4F17-A610-ED214E653FD2}"/>
+    <hyperlink ref="K8" r:id="rId20" xr:uid="{A59B8281-D6AF-4AFD-8BE3-7A65C5EB4D9B}"/>
+    <hyperlink ref="E9" r:id="rId21" xr:uid="{9C7475AF-3337-43EC-B072-1A3F77B24D26}"/>
+    <hyperlink ref="I9" r:id="rId22" xr:uid="{946D7DD7-51A3-4165-B749-61C887C7A4D6}"/>
+    <hyperlink ref="K9" r:id="rId23" xr:uid="{85820FE5-E72C-4F5E-9CBD-AFC097F70C54}"/>
+    <hyperlink ref="I10" r:id="rId24" xr:uid="{33041070-7FDF-4571-9668-872BC3C9AB11}"/>
+    <hyperlink ref="K10" r:id="rId25" xr:uid="{3C506225-7B33-44A7-8A07-6BE12C2AEA33}"/>
+    <hyperlink ref="E11" r:id="rId26" xr:uid="{D5C54855-F9E4-4291-86D5-CB3719306726}"/>
+    <hyperlink ref="I11" r:id="rId27" xr:uid="{CEDAB54E-3356-4225-978F-2D92A433A988}"/>
+    <hyperlink ref="K11" r:id="rId28" xr:uid="{CD91B281-BD97-4EBF-B7EC-966B12967AFD}"/>
+    <hyperlink ref="E15" r:id="rId29" xr:uid="{5ECDA181-453E-4A34-B397-F031FB8F6CB7}"/>
+    <hyperlink ref="I15" r:id="rId30" xr:uid="{C4B5F03A-F9BE-41D3-B1E8-0EE4AA942EC4}"/>
+    <hyperlink ref="K15" r:id="rId31" xr:uid="{B8888C75-DE9E-4653-80E4-A04852AC804B}"/>
+    <hyperlink ref="I12" r:id="rId32" xr:uid="{870485B1-F332-4458-BC2C-BCA5BBA33533}"/>
+    <hyperlink ref="K12" r:id="rId33" xr:uid="{D3C66B39-E3E3-4164-A652-B9211EBE87E0}"/>
+    <hyperlink ref="E13" r:id="rId34" xr:uid="{B4F3CC84-2AA8-43FC-8686-BF5223CE8378}"/>
+    <hyperlink ref="I13" r:id="rId35" xr:uid="{545F3DD0-7C47-412A-ABED-B2A86E4DCFAF}"/>
+    <hyperlink ref="K13" r:id="rId36" xr:uid="{CB9BFC5B-7F07-469B-A6EF-C1A2406222B8}"/>
+    <hyperlink ref="E14" r:id="rId37" xr:uid="{0692EE85-A738-4992-A439-1DA5B61782FD}"/>
+    <hyperlink ref="I14" r:id="rId38" xr:uid="{AFFF207F-9699-4A27-9F36-C5790E9F1468}"/>
+    <hyperlink ref="K14" r:id="rId39" xr:uid="{368AE6B9-4DAF-4BA2-AC7C-A685D5AD67CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId41"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1152,7 +2155,7 @@
           <x14:formula1>
             <xm:f>ZodiacSigns!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
+          <xm:sqref>G2:G15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1164,8 +2167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7928C639-08A7-4CAB-983A-5442D1057C42}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PirrrDaFag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ludovic Cao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C44A5E-88CD-4009-934C-B44B737BBA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8144AF02-D501-42B4-83B0-76B97CD18841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="690" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="301">
   <si>
     <t>DataOrigin</t>
   </si>
@@ -773,13 +771,181 @@
   </si>
   <si>
     <t>Comm constru</t>
+  </si>
+  <si>
+    <t>5v5M-E2022</t>
+  </si>
+  <si>
+    <t>https://ugm.ultimatecentral.com/fr_ca/e/ligues-recreatives-ete-2022-1/standings</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Cadieux</t>
+  </si>
+  <si>
+    <t>1991-04-17</t>
+  </si>
+  <si>
+    <t>❤,😢,👍</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/edjKD6M4uJSTXfQT6</t>
+  </si>
+  <si>
+    <t>El Rey Del Taco</t>
+  </si>
+  <si>
+    <t>Flick-Bris</t>
+  </si>
+  <si>
+    <t>Flick-Break</t>
+  </si>
+  <si>
+    <t>High-release backhand in the break</t>
+  </si>
+  <si>
+    <t>Hammer cross-stack</t>
+  </si>
+  <si>
+    <t>CUC Magma 2018</t>
+  </si>
+  <si>
+    <t>https://quebecsolidaire.net/</t>
+  </si>
+  <si>
+    <t>n0rkuy</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Gobeil</t>
+  </si>
+  <si>
+    <t>https://instagram.com/gloutonnisme</t>
+  </si>
+  <si>
+    <t>1994-08-10</t>
+  </si>
+  <si>
+    <t>🙃,🤪</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/fFUpK61ypFAAt3hC9</t>
+  </si>
+  <si>
+    <t>Pichai</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/0V9SOqHRWOifVZQLFyDfG9?si=enF8iY9-SXa3TpSWRp-Now</t>
+  </si>
+  <si>
+    <t>Choses Sauvages</t>
+  </si>
+  <si>
+    <t>Ce que je suis capable de lancer hahaha</t>
+  </si>
+  <si>
+    <t>Anything I can throw</t>
+  </si>
+  <si>
+    <t>Tournoi 4v4 je pense que c’était à 3-Ri</t>
+  </si>
+  <si>
+    <t>alexgobi</t>
+  </si>
+  <si>
+    <t>Marie-Hélène</t>
+  </si>
+  <si>
+    <t>Darveau</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-5EQIiabJvk</t>
+  </si>
+  <si>
+    <t>1996-01-29</t>
+  </si>
+  <si>
+    <t>🙌,🐙,👅</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/gjcfaLg8PtpddByi9</t>
+  </si>
+  <si>
+    <t>Vin Mon Lapin</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/5FxD8fkQZ6KcsSYupDVoSO?si=MArIeD9PTTKCA_KcZezhFg</t>
+  </si>
+  <si>
+    <t>Omar Apollo</t>
+  </si>
+  <si>
+    <t>CUC avec Volt!</t>
+  </si>
+  <si>
+    <t>mariehdarveau</t>
+  </si>
+  <si>
+    <t>Lagacé</t>
+  </si>
+  <si>
+    <t>https://perdu.com/</t>
+  </si>
+  <si>
+    <t>1992-08-07</t>
+  </si>
+  <si>
+    <t>❤,🤫,😂</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/1MDlZmN8IgqV4AYZChlWPM?si=ZmzWjGP3QTGMtu1O32OhlQ</t>
+  </si>
+  <si>
+    <t>Ariane Roy</t>
+  </si>
+  <si>
+    <t>https://g.page/cafesaigonmtl?share</t>
+  </si>
+  <si>
+    <t>Café Saigon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moi qui pète ma team de mtl avec ma team de tremblant lol(j'avais une crowd) </t>
+  </si>
+  <si>
+    <t>Backhand air bounce lefty</t>
+  </si>
+  <si>
+    <t>Backend air bounce lefty</t>
+  </si>
+  <si>
+    <t>jay_jack.l</t>
+  </si>
+  <si>
+    <t>Jérémy-Jacob</t>
+  </si>
+  <si>
+    <t>~/img/mariehdarveau1.jpg</t>
+  </si>
+  <si>
+    <t>~/img/davidcadieux1.jpg</t>
+  </si>
+  <si>
+    <t>~/img/jeremylagacé1.jpg</t>
+  </si>
+  <si>
+    <t>4,5,7,10,14,20,27,36,45,53,77,88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +960,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -817,10 +988,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -857,8 +1029,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0">
-  <autoFilter ref="A1:F4" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0">
+  <autoFilter ref="A1:F5" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4351D8DD-9558-4605-8262-1875E0227200}" name="Key"/>
     <tableColumn id="2" xr3:uid="{8372E192-9212-416B-AF7D-DAAA9A70E6D0}" name="Year"/>
@@ -872,8 +1044,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}" name="Table3" displayName="Table3" ref="A1:Q15" totalsRowShown="0">
-  <autoFilter ref="A1:Q15" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}" name="Table3" displayName="Table3" ref="A1:Q19" totalsRowShown="0">
+  <autoFilter ref="A1:Q19" xr:uid="{52841241-BB89-4A4D-9979-E77FBE58340B}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E9921A05-41A9-4D66-A3D4-4E9B29A839CB}" name="Number"/>
     <tableColumn id="2" xr3:uid="{4C773954-616C-4A10-9120-74DAAA333B2B}" name="FirstName"/>
@@ -1262,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89CEBC-3C19-4A42-9B8A-86C0924A81EF}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1445,7 @@
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="141.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1299,10 +1471,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="B2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -1311,71 +1483,92 @@
         <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>2021</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2020</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>71</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{04E7B529-6CF4-4D0D-9EE9-8BC4209A7E16}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{E758497A-287B-486F-9126-2EF4ACAD4D48}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{BD26994F-5A7C-4545-8A36-D8771E8B5DE7}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{04E7B529-6CF4-4D0D-9EE9-8BC4209A7E16}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{E758497A-287B-486F-9126-2EF4ACAD4D48}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{BD26994F-5A7C-4545-8A36-D8771E8B5DE7}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{DB79788A-34CE-4EFF-B352-E03B48B5039C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96815FA3-9421-4216-B9D0-1EAF4A6293D5}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,6 +1685,9 @@
       <c r="M2" t="s">
         <v>68</v>
       </c>
+      <c r="N2" t="s">
+        <v>172</v>
+      </c>
       <c r="O2" t="s">
         <v>244</v>
       </c>
@@ -1539,6 +1735,9 @@
       <c r="M3" t="s">
         <v>89</v>
       </c>
+      <c r="N3" t="s">
+        <v>89</v>
+      </c>
       <c r="O3" t="s">
         <v>90</v>
       </c>
@@ -1548,556 +1747,792 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>99</v>
+        <v>44</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="L4" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="M4" t="s">
-        <v>104</v>
+        <v>269</v>
+      </c>
+      <c r="N4" t="s">
+        <v>270</v>
       </c>
       <c r="O4" t="s">
-        <v>105</v>
+        <v>271</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s">
-        <v>125</v>
+        <v>104</v>
+      </c>
+      <c r="N5" t="s">
+        <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
+        <v>125</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="L7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>138</v>
+      </c>
+      <c r="N7" t="s">
+        <v>138</v>
       </c>
       <c r="O7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Q7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>162</v>
+        <v>151</v>
+      </c>
+      <c r="N8" t="s">
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q8" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>297</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>277</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="J9" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>281</v>
       </c>
       <c r="M9" t="s">
         <v>172</v>
       </c>
+      <c r="N9" t="s">
+        <v>172</v>
+      </c>
       <c r="O9" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="Q9" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
+        <v>252</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>253</v>
+      </c>
+      <c r="N10" t="s">
+        <v>254</v>
       </c>
       <c r="O10" t="s">
-        <v>186</v>
+        <v>257</v>
       </c>
       <c r="Q10" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="L11" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="M11" t="s">
-        <v>196</v>
+        <v>162</v>
+      </c>
+      <c r="N11" t="s">
+        <v>162</v>
       </c>
       <c r="O11" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="Q11" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="J12" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="M12" t="s">
-        <v>162</v>
+        <v>172</v>
+      </c>
+      <c r="N12" t="s">
+        <v>172</v>
       </c>
       <c r="O12" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J13" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="L13" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="M13" t="s">
-        <v>227</v>
+        <v>185</v>
+      </c>
+      <c r="N13" t="s">
+        <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="Q13" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>234</v>
+        <v>192</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="L14" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="M14" t="s">
-        <v>239</v>
+        <v>196</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
       </c>
       <c r="O14" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="Q14" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" t="s">
+        <v>162</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>222</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" t="s">
+        <v>226</v>
+      </c>
+      <c r="M16" t="s">
+        <v>227</v>
+      </c>
+      <c r="N16" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>235</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" t="s">
+        <v>237</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L17" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" t="s">
+        <v>239</v>
+      </c>
+      <c r="N17" t="s">
+        <v>256</v>
+      </c>
+      <c r="O17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D18" t="s">
+        <v>299</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>287</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J18" t="s">
+        <v>291</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="L18" t="s">
+        <v>289</v>
+      </c>
+      <c r="M18" t="s">
+        <v>294</v>
+      </c>
+      <c r="N18" t="s">
+        <v>293</v>
+      </c>
+      <c r="O18" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B19" t="s">
         <v>198</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>199</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G19" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H19" t="s">
         <v>203</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J19" t="s">
         <v>205</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L15" t="s">
+      <c r="L19" t="s">
         <v>207</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M19" t="s">
         <v>208</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N19" t="s">
+        <v>208</v>
+      </c>
+      <c r="O19" t="s">
         <v>209</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="Q19" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2109,44 +2544,55 @@
     <hyperlink ref="E3" r:id="rId4" xr:uid="{9F94BD4F-8E55-4D1E-990A-0C61825E711F}"/>
     <hyperlink ref="I3" r:id="rId5" xr:uid="{76482FCA-9285-4303-95D8-28DA385BCF98}"/>
     <hyperlink ref="K3" r:id="rId6" xr:uid="{D0F1A783-3F97-444B-902F-C93D192F7014}"/>
-    <hyperlink ref="E4" r:id="rId7" xr:uid="{96B8DB16-0646-4DB1-A1E3-3EA696CAFF1C}"/>
-    <hyperlink ref="I4" r:id="rId8" xr:uid="{B99C2BFA-1F74-4ECC-BAC9-30E291F9A122}"/>
-    <hyperlink ref="K4" r:id="rId9" xr:uid="{B1CA9067-63AF-40E7-9E27-43C745676407}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{32071409-9780-43F2-8D45-188E725FED28}"/>
-    <hyperlink ref="I5" r:id="rId11" xr:uid="{D753FE92-22D2-4205-A218-FB5F4E3461BA}"/>
-    <hyperlink ref="K5" r:id="rId12" xr:uid="{A3BC5001-7ACF-4DD2-867C-8BEE9E10A729}"/>
-    <hyperlink ref="E6" r:id="rId13" xr:uid="{8483694F-2F29-4B35-A414-B6D34252118F}"/>
-    <hyperlink ref="I6" r:id="rId14" xr:uid="{0885C5C2-3970-4A8E-8A84-6C564EB85A6C}"/>
-    <hyperlink ref="K6" r:id="rId15" xr:uid="{7D7D2446-285D-4523-BB6E-4875943DB74D}"/>
-    <hyperlink ref="E7" r:id="rId16" xr:uid="{9F6EEFA6-6BDB-4EB6-8A9C-8FF0B2B99F31}"/>
-    <hyperlink ref="I7" r:id="rId17" xr:uid="{9C3BD94B-92A4-44ED-94FF-7F50FC3F8A9F}"/>
-    <hyperlink ref="K7" r:id="rId18" xr:uid="{B77DD649-0917-4B10-858E-8573A7FA90BF}"/>
-    <hyperlink ref="I8" r:id="rId19" xr:uid="{8DE0FD80-B157-4F17-A610-ED214E653FD2}"/>
-    <hyperlink ref="K8" r:id="rId20" xr:uid="{A59B8281-D6AF-4AFD-8BE3-7A65C5EB4D9B}"/>
-    <hyperlink ref="E9" r:id="rId21" xr:uid="{9C7475AF-3337-43EC-B072-1A3F77B24D26}"/>
-    <hyperlink ref="I9" r:id="rId22" xr:uid="{946D7DD7-51A3-4165-B749-61C887C7A4D6}"/>
-    <hyperlink ref="K9" r:id="rId23" xr:uid="{85820FE5-E72C-4F5E-9CBD-AFC097F70C54}"/>
-    <hyperlink ref="I10" r:id="rId24" xr:uid="{33041070-7FDF-4571-9668-872BC3C9AB11}"/>
-    <hyperlink ref="K10" r:id="rId25" xr:uid="{3C506225-7B33-44A7-8A07-6BE12C2AEA33}"/>
-    <hyperlink ref="E11" r:id="rId26" xr:uid="{D5C54855-F9E4-4291-86D5-CB3719306726}"/>
-    <hyperlink ref="I11" r:id="rId27" xr:uid="{CEDAB54E-3356-4225-978F-2D92A433A988}"/>
-    <hyperlink ref="K11" r:id="rId28" xr:uid="{CD91B281-BD97-4EBF-B7EC-966B12967AFD}"/>
-    <hyperlink ref="E15" r:id="rId29" xr:uid="{5ECDA181-453E-4A34-B397-F031FB8F6CB7}"/>
-    <hyperlink ref="I15" r:id="rId30" xr:uid="{C4B5F03A-F9BE-41D3-B1E8-0EE4AA942EC4}"/>
-    <hyperlink ref="K15" r:id="rId31" xr:uid="{B8888C75-DE9E-4653-80E4-A04852AC804B}"/>
-    <hyperlink ref="I12" r:id="rId32" xr:uid="{870485B1-F332-4458-BC2C-BCA5BBA33533}"/>
-    <hyperlink ref="K12" r:id="rId33" xr:uid="{D3C66B39-E3E3-4164-A652-B9211EBE87E0}"/>
-    <hyperlink ref="E13" r:id="rId34" xr:uid="{B4F3CC84-2AA8-43FC-8686-BF5223CE8378}"/>
-    <hyperlink ref="I13" r:id="rId35" xr:uid="{545F3DD0-7C47-412A-ABED-B2A86E4DCFAF}"/>
-    <hyperlink ref="K13" r:id="rId36" xr:uid="{CB9BFC5B-7F07-469B-A6EF-C1A2406222B8}"/>
-    <hyperlink ref="E14" r:id="rId37" xr:uid="{0692EE85-A738-4992-A439-1DA5B61782FD}"/>
-    <hyperlink ref="I14" r:id="rId38" xr:uid="{AFFF207F-9699-4A27-9F36-C5790E9F1468}"/>
-    <hyperlink ref="K14" r:id="rId39" xr:uid="{368AE6B9-4DAF-4BA2-AC7C-A685D5AD67CA}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{96B8DB16-0646-4DB1-A1E3-3EA696CAFF1C}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{B99C2BFA-1F74-4ECC-BAC9-30E291F9A122}"/>
+    <hyperlink ref="K5" r:id="rId9" xr:uid="{B1CA9067-63AF-40E7-9E27-43C745676407}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{32071409-9780-43F2-8D45-188E725FED28}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{D753FE92-22D2-4205-A218-FB5F4E3461BA}"/>
+    <hyperlink ref="K6" r:id="rId12" xr:uid="{A3BC5001-7ACF-4DD2-867C-8BEE9E10A729}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{8483694F-2F29-4B35-A414-B6D34252118F}"/>
+    <hyperlink ref="I7" r:id="rId14" xr:uid="{0885C5C2-3970-4A8E-8A84-6C564EB85A6C}"/>
+    <hyperlink ref="K7" r:id="rId15" xr:uid="{7D7D2446-285D-4523-BB6E-4875943DB74D}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{9F6EEFA6-6BDB-4EB6-8A9C-8FF0B2B99F31}"/>
+    <hyperlink ref="I8" r:id="rId17" xr:uid="{9C3BD94B-92A4-44ED-94FF-7F50FC3F8A9F}"/>
+    <hyperlink ref="K8" r:id="rId18" xr:uid="{B77DD649-0917-4B10-858E-8573A7FA90BF}"/>
+    <hyperlink ref="I11" r:id="rId19" xr:uid="{8DE0FD80-B157-4F17-A610-ED214E653FD2}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{A59B8281-D6AF-4AFD-8BE3-7A65C5EB4D9B}"/>
+    <hyperlink ref="E12" r:id="rId21" xr:uid="{9C7475AF-3337-43EC-B072-1A3F77B24D26}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{946D7DD7-51A3-4165-B749-61C887C7A4D6}"/>
+    <hyperlink ref="K12" r:id="rId23" xr:uid="{85820FE5-E72C-4F5E-9CBD-AFC097F70C54}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{33041070-7FDF-4571-9668-872BC3C9AB11}"/>
+    <hyperlink ref="K13" r:id="rId25" xr:uid="{3C506225-7B33-44A7-8A07-6BE12C2AEA33}"/>
+    <hyperlink ref="E14" r:id="rId26" xr:uid="{D5C54855-F9E4-4291-86D5-CB3719306726}"/>
+    <hyperlink ref="I14" r:id="rId27" xr:uid="{CEDAB54E-3356-4225-978F-2D92A433A988}"/>
+    <hyperlink ref="K14" r:id="rId28" xr:uid="{CD91B281-BD97-4EBF-B7EC-966B12967AFD}"/>
+    <hyperlink ref="E19" r:id="rId29" xr:uid="{5ECDA181-453E-4A34-B397-F031FB8F6CB7}"/>
+    <hyperlink ref="I19" r:id="rId30" xr:uid="{C4B5F03A-F9BE-41D3-B1E8-0EE4AA942EC4}"/>
+    <hyperlink ref="K19" r:id="rId31" xr:uid="{B8888C75-DE9E-4653-80E4-A04852AC804B}"/>
+    <hyperlink ref="I15" r:id="rId32" xr:uid="{870485B1-F332-4458-BC2C-BCA5BBA33533}"/>
+    <hyperlink ref="K15" r:id="rId33" xr:uid="{D3C66B39-E3E3-4164-A652-B9211EBE87E0}"/>
+    <hyperlink ref="E16" r:id="rId34" xr:uid="{B4F3CC84-2AA8-43FC-8686-BF5223CE8378}"/>
+    <hyperlink ref="I16" r:id="rId35" xr:uid="{545F3DD0-7C47-412A-ABED-B2A86E4DCFAF}"/>
+    <hyperlink ref="K16" r:id="rId36" xr:uid="{CB9BFC5B-7F07-469B-A6EF-C1A2406222B8}"/>
+    <hyperlink ref="E17" r:id="rId37" xr:uid="{0692EE85-A738-4992-A439-1DA5B61782FD}"/>
+    <hyperlink ref="I17" r:id="rId38" xr:uid="{AFFF207F-9699-4A27-9F36-C5790E9F1468}"/>
+    <hyperlink ref="K17" r:id="rId39" xr:uid="{368AE6B9-4DAF-4BA2-AC7C-A685D5AD67CA}"/>
+    <hyperlink ref="I10" r:id="rId40" xr:uid="{7299F505-A427-4F92-96AF-DDBDFD3F3FFC}"/>
+    <hyperlink ref="K10" r:id="rId41" xr:uid="{CD6CBDE4-7555-4B35-A8D6-602E4AA39974}"/>
+    <hyperlink ref="E10" r:id="rId42" xr:uid="{6CDECD9A-B781-4AE2-9BC6-FA4C9607CE6C}"/>
+    <hyperlink ref="E4" r:id="rId43" xr:uid="{27B66F5B-C088-467F-8354-8F80ED6A157B}"/>
+    <hyperlink ref="I4" r:id="rId44" xr:uid="{47AE8A4B-458E-433F-93B6-A1AD963A9335}"/>
+    <hyperlink ref="K4" r:id="rId45" xr:uid="{70FE65D7-314D-42BE-A030-18DD1C7C59A6}"/>
+    <hyperlink ref="I9" r:id="rId46" xr:uid="{D43FCCAE-757E-41A8-8321-3C56493D19C3}"/>
+    <hyperlink ref="K9" r:id="rId47" xr:uid="{6B4B7B00-E624-49A3-8603-B5C478B30347}"/>
+    <hyperlink ref="E18" r:id="rId48" xr:uid="{EDB2B31D-9CD2-4436-9502-C09D06D1DE1D}"/>
+    <hyperlink ref="K18" r:id="rId49" xr:uid="{0F5F6E96-9A3D-4278-ADC5-BA67EB350642}"/>
+    <hyperlink ref="I18" r:id="rId50" xr:uid="{37B8B4E0-76F1-48CA-A242-1C38F9C2EA86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
   <tableParts count="1">
-    <tablePart r:id="rId41"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2155,7 +2601,7 @@
           <x14:formula1>
             <xm:f>ZodiacSigns!$A$2:$A$13</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G15</xm:sqref>
+          <xm:sqref>G2:G19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2167,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7928C639-08A7-4CAB-983A-5442D1057C42}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ludovic Cao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8144AF02-D501-42B4-83B0-76B97CD18841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FB1862-C2DE-4B3E-B38A-CA0829B22D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Players" sheetId="2" r:id="rId3"/>
     <sheet name="ZodiacSigns" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="308">
   <si>
     <t>DataOrigin</t>
   </si>
@@ -509,18 +509,9 @@
     <t>~/img/evemasse1.jpg</t>
   </si>
   <si>
-    <t>XXXXXXX</t>
-  </si>
-  <si>
-    <t>XXXXX</t>
-  </si>
-  <si>
     <t>https://goo.gl/maps/HZUZiJivoceAUGXeA</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>https://open.spotify.com/artist/7Ln80lUS6He07XvHI8qqHH</t>
   </si>
   <si>
@@ -638,9 +629,6 @@
     <t>Cao</t>
   </si>
   <si>
-    <t>~/img/ludoviccao2.jpg</t>
-  </si>
-  <si>
     <t>https://tinder.com/@ludoviccao</t>
   </si>
   <si>
@@ -935,10 +923,43 @@
     <t>~/img/davidcadieux1.jpg</t>
   </si>
   <si>
-    <t>~/img/jeremylagacé1.jpg</t>
-  </si>
-  <si>
     <t>4,5,7,10,14,20,27,36,45,53,77,88</t>
+  </si>
+  <si>
+    <t>~/img/jeremylagacé2.jpg</t>
+  </si>
+  <si>
+    <t>~/img/ludoviccao3.jpg</t>
+  </si>
+  <si>
+    <t>~/img/alexandragobeil1.jpg</t>
+  </si>
+  <si>
+    <t>1993-03-24</t>
+  </si>
+  <si>
+    <t>😆,👍,🥳</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/h2MoZfJCV1uKbVPCA</t>
+  </si>
+  <si>
+    <t>St-Hubert</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/artist/4S9EykWXhStSc15wEx8QFK?si=ul1SC55qTVOmAviYgcroKQ</t>
+  </si>
+  <si>
+    <t>Céline Dion</t>
+  </si>
+  <si>
+    <t>Faire le point</t>
+  </si>
+  <si>
+    <t>Toutes les fois que je joue</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/tournoidelachips</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89CEBC-3C19-4A42-9B8A-86C0924A81EF}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1471,7 +1492,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -1483,10 +1504,10 @@
         <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96815FA3-9421-4216-B9D0-1EAF4A6293D5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,13 +1707,13 @@
         <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="O2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1750,46 +1771,49 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>298</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" t="s">
+        <v>262</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L4" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" t="s">
         <v>265</v>
       </c>
-      <c r="J4" t="s">
+      <c r="N4" t="s">
         <v>266</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="O4" t="s">
         <v>267</v>
       </c>
-      <c r="L4" t="s">
+      <c r="Q4" t="s">
         <v>268</v>
-      </c>
-      <c r="M4" t="s">
-        <v>269</v>
-      </c>
-      <c r="N4" t="s">
-        <v>270</v>
-      </c>
-      <c r="O4" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1994,49 +2018,49 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
+        <v>273</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L9" t="s">
         <v>277</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="M9" t="s">
+        <v>169</v>
+      </c>
+      <c r="N9" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" t="s">
         <v>278</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" t="s">
         <v>279</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="L9" t="s">
-        <v>281</v>
-      </c>
-      <c r="M9" t="s">
-        <v>172</v>
-      </c>
-      <c r="N9" t="s">
-        <v>172</v>
-      </c>
-      <c r="O9" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2044,31 +2068,31 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D10" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
       </c>
       <c r="H10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>87</v>
@@ -2077,16 +2101,16 @@
         <v>88</v>
       </c>
       <c r="M10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N10" t="s">
+        <v>250</v>
+      </c>
+      <c r="O10" t="s">
         <v>253</v>
       </c>
-      <c r="N10" t="s">
-        <v>254</v>
-      </c>
-      <c r="O10" t="s">
-        <v>257</v>
-      </c>
       <c r="Q10" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2103,37 +2127,37 @@
         <v>156</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>158</v>
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>300</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>159</v>
+        <v>301</v>
       </c>
       <c r="J11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" t="s">
+        <v>304</v>
+      </c>
+      <c r="M11" t="s">
+        <v>305</v>
+      </c>
+      <c r="O11" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q11" t="s">
         <v>160</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L11" t="s">
-        <v>160</v>
-      </c>
-      <c r="M11" t="s">
-        <v>162</v>
-      </c>
-      <c r="N11" t="s">
-        <v>162</v>
-      </c>
-      <c r="O11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2141,49 +2165,49 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="G12" t="s">
         <v>43</v>
       </c>
       <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" t="s">
+        <v>167</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="N12" t="s">
+        <v>169</v>
+      </c>
+      <c r="O12" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="Q12" t="s">
         <v>171</v>
-      </c>
-      <c r="M12" t="s">
-        <v>172</v>
-      </c>
-      <c r="N12" t="s">
-        <v>172</v>
-      </c>
-      <c r="O12" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2191,49 +2215,49 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
       </c>
       <c r="H13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="L13" t="s">
         <v>181</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="N13" t="s">
+        <v>182</v>
+      </c>
+      <c r="O13" t="s">
         <v>183</v>
       </c>
-      <c r="L13" t="s">
+      <c r="Q13" t="s">
         <v>184</v>
-      </c>
-      <c r="M13" t="s">
-        <v>185</v>
-      </c>
-      <c r="N13" t="s">
-        <v>185</v>
-      </c>
-      <c r="O13" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2241,49 +2265,49 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="D14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
       </c>
       <c r="H14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L14" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" t="s">
         <v>193</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="N14" t="s">
+        <v>193</v>
+      </c>
+      <c r="O14" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q14" t="s">
         <v>194</v>
-      </c>
-      <c r="L14" t="s">
-        <v>195</v>
-      </c>
-      <c r="M14" t="s">
-        <v>196</v>
-      </c>
-      <c r="N14" t="s">
-        <v>196</v>
-      </c>
-      <c r="O14" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2291,49 +2315,49 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2341,49 +2365,49 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D16" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
+        <v>218</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J16" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" t="s">
         <v>222</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="M16" t="s">
         <v>223</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
+        <v>251</v>
+      </c>
+      <c r="O16" t="s">
         <v>224</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="Q16" t="s">
         <v>225</v>
-      </c>
-      <c r="L16" t="s">
-        <v>226</v>
-      </c>
-      <c r="M16" t="s">
-        <v>227</v>
-      </c>
-      <c r="N16" t="s">
-        <v>255</v>
-      </c>
-      <c r="O16" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2391,49 +2415,49 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>234</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
       </c>
       <c r="H17" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" t="s">
+        <v>236</v>
+      </c>
+      <c r="M17" t="s">
         <v>235</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="N17" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" t="s">
         <v>237</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>238</v>
-      </c>
-      <c r="L17" t="s">
-        <v>240</v>
-      </c>
-      <c r="M17" t="s">
-        <v>239</v>
-      </c>
-      <c r="N17" t="s">
-        <v>256</v>
-      </c>
-      <c r="O17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2441,49 +2465,49 @@
         <v>77</v>
       </c>
       <c r="B18" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
         <v>296</v>
       </c>
-      <c r="C18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D18" t="s">
-        <v>299</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
       </c>
       <c r="H18" t="s">
+        <v>283</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J18" t="s">
         <v>287</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" t="s">
+        <v>285</v>
+      </c>
+      <c r="M18" t="s">
         <v>290</v>
       </c>
-      <c r="J18" t="s">
+      <c r="N18" t="s">
+        <v>289</v>
+      </c>
+      <c r="O18" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q18" t="s">
         <v>291</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="L18" t="s">
-        <v>289</v>
-      </c>
-      <c r="M18" t="s">
-        <v>294</v>
-      </c>
-      <c r="N18" t="s">
-        <v>293</v>
-      </c>
-      <c r="O18" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2491,49 +2515,49 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
       </c>
       <c r="H19" t="s">
+        <v>199</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s">
         <v>203</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="M19" t="s">
         <v>204</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
+        <v>204</v>
+      </c>
+      <c r="O19" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>206</v>
-      </c>
-      <c r="L19" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" t="s">
-        <v>208</v>
-      </c>
-      <c r="N19" t="s">
-        <v>208</v>
-      </c>
-      <c r="O19" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2556,43 +2580,41 @@
     <hyperlink ref="E8" r:id="rId16" xr:uid="{9F6EEFA6-6BDB-4EB6-8A9C-8FF0B2B99F31}"/>
     <hyperlink ref="I8" r:id="rId17" xr:uid="{9C3BD94B-92A4-44ED-94FF-7F50FC3F8A9F}"/>
     <hyperlink ref="K8" r:id="rId18" xr:uid="{B77DD649-0917-4B10-858E-8573A7FA90BF}"/>
-    <hyperlink ref="I11" r:id="rId19" xr:uid="{8DE0FD80-B157-4F17-A610-ED214E653FD2}"/>
-    <hyperlink ref="K11" r:id="rId20" xr:uid="{A59B8281-D6AF-4AFD-8BE3-7A65C5EB4D9B}"/>
-    <hyperlink ref="E12" r:id="rId21" xr:uid="{9C7475AF-3337-43EC-B072-1A3F77B24D26}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{946D7DD7-51A3-4165-B749-61C887C7A4D6}"/>
-    <hyperlink ref="K12" r:id="rId23" xr:uid="{85820FE5-E72C-4F5E-9CBD-AFC097F70C54}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{33041070-7FDF-4571-9668-872BC3C9AB11}"/>
-    <hyperlink ref="K13" r:id="rId25" xr:uid="{3C506225-7B33-44A7-8A07-6BE12C2AEA33}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{D5C54855-F9E4-4291-86D5-CB3719306726}"/>
-    <hyperlink ref="I14" r:id="rId27" xr:uid="{CEDAB54E-3356-4225-978F-2D92A433A988}"/>
-    <hyperlink ref="K14" r:id="rId28" xr:uid="{CD91B281-BD97-4EBF-B7EC-966B12967AFD}"/>
-    <hyperlink ref="E19" r:id="rId29" xr:uid="{5ECDA181-453E-4A34-B397-F031FB8F6CB7}"/>
-    <hyperlink ref="I19" r:id="rId30" xr:uid="{C4B5F03A-F9BE-41D3-B1E8-0EE4AA942EC4}"/>
-    <hyperlink ref="K19" r:id="rId31" xr:uid="{B8888C75-DE9E-4653-80E4-A04852AC804B}"/>
-    <hyperlink ref="I15" r:id="rId32" xr:uid="{870485B1-F332-4458-BC2C-BCA5BBA33533}"/>
-    <hyperlink ref="K15" r:id="rId33" xr:uid="{D3C66B39-E3E3-4164-A652-B9211EBE87E0}"/>
-    <hyperlink ref="E16" r:id="rId34" xr:uid="{B4F3CC84-2AA8-43FC-8686-BF5223CE8378}"/>
-    <hyperlink ref="I16" r:id="rId35" xr:uid="{545F3DD0-7C47-412A-ABED-B2A86E4DCFAF}"/>
-    <hyperlink ref="K16" r:id="rId36" xr:uid="{CB9BFC5B-7F07-469B-A6EF-C1A2406222B8}"/>
-    <hyperlink ref="E17" r:id="rId37" xr:uid="{0692EE85-A738-4992-A439-1DA5B61782FD}"/>
-    <hyperlink ref="I17" r:id="rId38" xr:uid="{AFFF207F-9699-4A27-9F36-C5790E9F1468}"/>
-    <hyperlink ref="K17" r:id="rId39" xr:uid="{368AE6B9-4DAF-4BA2-AC7C-A685D5AD67CA}"/>
-    <hyperlink ref="I10" r:id="rId40" xr:uid="{7299F505-A427-4F92-96AF-DDBDFD3F3FFC}"/>
-    <hyperlink ref="K10" r:id="rId41" xr:uid="{CD6CBDE4-7555-4B35-A8D6-602E4AA39974}"/>
-    <hyperlink ref="E10" r:id="rId42" xr:uid="{6CDECD9A-B781-4AE2-9BC6-FA4C9607CE6C}"/>
-    <hyperlink ref="E4" r:id="rId43" xr:uid="{27B66F5B-C088-467F-8354-8F80ED6A157B}"/>
-    <hyperlink ref="I4" r:id="rId44" xr:uid="{47AE8A4B-458E-433F-93B6-A1AD963A9335}"/>
-    <hyperlink ref="K4" r:id="rId45" xr:uid="{70FE65D7-314D-42BE-A030-18DD1C7C59A6}"/>
-    <hyperlink ref="I9" r:id="rId46" xr:uid="{D43FCCAE-757E-41A8-8321-3C56493D19C3}"/>
-    <hyperlink ref="K9" r:id="rId47" xr:uid="{6B4B7B00-E624-49A3-8603-B5C478B30347}"/>
-    <hyperlink ref="E18" r:id="rId48" xr:uid="{EDB2B31D-9CD2-4436-9502-C09D06D1DE1D}"/>
-    <hyperlink ref="K18" r:id="rId49" xr:uid="{0F5F6E96-9A3D-4278-ADC5-BA67EB350642}"/>
-    <hyperlink ref="I18" r:id="rId50" xr:uid="{37B8B4E0-76F1-48CA-A242-1C38F9C2EA86}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{9C7475AF-3337-43EC-B072-1A3F77B24D26}"/>
+    <hyperlink ref="I12" r:id="rId20" xr:uid="{946D7DD7-51A3-4165-B749-61C887C7A4D6}"/>
+    <hyperlink ref="K12" r:id="rId21" xr:uid="{85820FE5-E72C-4F5E-9CBD-AFC097F70C54}"/>
+    <hyperlink ref="I13" r:id="rId22" xr:uid="{33041070-7FDF-4571-9668-872BC3C9AB11}"/>
+    <hyperlink ref="K13" r:id="rId23" xr:uid="{3C506225-7B33-44A7-8A07-6BE12C2AEA33}"/>
+    <hyperlink ref="E14" r:id="rId24" xr:uid="{D5C54855-F9E4-4291-86D5-CB3719306726}"/>
+    <hyperlink ref="I14" r:id="rId25" xr:uid="{CEDAB54E-3356-4225-978F-2D92A433A988}"/>
+    <hyperlink ref="K14" r:id="rId26" xr:uid="{CD91B281-BD97-4EBF-B7EC-966B12967AFD}"/>
+    <hyperlink ref="E19" r:id="rId27" xr:uid="{5ECDA181-453E-4A34-B397-F031FB8F6CB7}"/>
+    <hyperlink ref="I19" r:id="rId28" xr:uid="{C4B5F03A-F9BE-41D3-B1E8-0EE4AA942EC4}"/>
+    <hyperlink ref="K19" r:id="rId29" xr:uid="{B8888C75-DE9E-4653-80E4-A04852AC804B}"/>
+    <hyperlink ref="I15" r:id="rId30" xr:uid="{870485B1-F332-4458-BC2C-BCA5BBA33533}"/>
+    <hyperlink ref="K15" r:id="rId31" xr:uid="{D3C66B39-E3E3-4164-A652-B9211EBE87E0}"/>
+    <hyperlink ref="E16" r:id="rId32" xr:uid="{B4F3CC84-2AA8-43FC-8686-BF5223CE8378}"/>
+    <hyperlink ref="I16" r:id="rId33" xr:uid="{545F3DD0-7C47-412A-ABED-B2A86E4DCFAF}"/>
+    <hyperlink ref="K16" r:id="rId34" xr:uid="{CB9BFC5B-7F07-469B-A6EF-C1A2406222B8}"/>
+    <hyperlink ref="E17" r:id="rId35" xr:uid="{0692EE85-A738-4992-A439-1DA5B61782FD}"/>
+    <hyperlink ref="I17" r:id="rId36" xr:uid="{AFFF207F-9699-4A27-9F36-C5790E9F1468}"/>
+    <hyperlink ref="K17" r:id="rId37" xr:uid="{368AE6B9-4DAF-4BA2-AC7C-A685D5AD67CA}"/>
+    <hyperlink ref="I10" r:id="rId38" xr:uid="{7299F505-A427-4F92-96AF-DDBDFD3F3FFC}"/>
+    <hyperlink ref="K10" r:id="rId39" xr:uid="{CD6CBDE4-7555-4B35-A8D6-602E4AA39974}"/>
+    <hyperlink ref="E10" r:id="rId40" xr:uid="{6CDECD9A-B781-4AE2-9BC6-FA4C9607CE6C}"/>
+    <hyperlink ref="E4" r:id="rId41" xr:uid="{27B66F5B-C088-467F-8354-8F80ED6A157B}"/>
+    <hyperlink ref="I4" r:id="rId42" xr:uid="{47AE8A4B-458E-433F-93B6-A1AD963A9335}"/>
+    <hyperlink ref="K4" r:id="rId43" xr:uid="{70FE65D7-314D-42BE-A030-18DD1C7C59A6}"/>
+    <hyperlink ref="I9" r:id="rId44" xr:uid="{D43FCCAE-757E-41A8-8321-3C56493D19C3}"/>
+    <hyperlink ref="K9" r:id="rId45" xr:uid="{6B4B7B00-E624-49A3-8603-B5C478B30347}"/>
+    <hyperlink ref="E18" r:id="rId46" xr:uid="{EDB2B31D-9CD2-4436-9502-C09D06D1DE1D}"/>
+    <hyperlink ref="K18" r:id="rId47" xr:uid="{0F5F6E96-9A3D-4278-ADC5-BA67EB350642}"/>
+    <hyperlink ref="I18" r:id="rId48" xr:uid="{37B8B4E0-76F1-48CA-A242-1C38F9C2EA86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2614,7 +2636,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Ludovic Cao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludovic.cao\Documents\Ultimate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FB1862-C2DE-4B3E-B38A-CA0829B22D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4482C2-4E39-4238-A558-CE5D89BFE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -266,9 +266,6 @@
     <t>Code QR Ultimate</t>
   </si>
   <si>
-    <t>~/img/mainpage3.jpg</t>
-  </si>
-  <si>
     <t>codeqrultimate@gmail.com</t>
   </si>
   <si>
@@ -960,6 +957,9 @@
   </si>
   <si>
     <t>https://www.facebook.com/tournoidelachips</t>
+  </si>
+  <si>
+    <t>~/img/mainpage4.jpg</t>
   </si>
 </sst>
 </file>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CAA6E1-B02E-4DE6-B4B4-577DD4F1FB45}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,10 +1435,10 @@
         <v>75</v>
       </c>
       <c r="C2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -1504,10 +1504,10 @@
         <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1527,32 +1527,32 @@
         <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>2021</v>
       </c>
       <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>107</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -1564,10 +1564,10 @@
         <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
         <v>113</v>
-      </c>
-      <c r="F5" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1588,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96815FA3-9421-4216-B9D0-1EAF4A6293D5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -1657,10 +1657,10 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>92</v>
-      </c>
-      <c r="P1" t="s">
-        <v>93</v>
       </c>
       <c r="Q1" t="s">
         <v>69</v>
@@ -1683,7 +1683,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
         <v>49</v>
@@ -1707,13 +1707,13 @@
         <v>68</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Q2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1721,49 +1721,49 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>47</v>
       </c>
       <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" t="s">
         <v>85</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>88</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
         <v>89</v>
       </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>90</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1771,49 +1771,49 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
         <v>256</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="G4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
         <v>261</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" t="s">
         <v>263</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>264</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>265</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>266</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>267</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1821,46 +1821,46 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="G5" t="s">
         <v>40</v>
       </c>
       <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" t="s">
         <v>100</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" t="s">
         <v>102</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>103</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" t="s">
         <v>104</v>
-      </c>
-      <c r="N5" t="s">
-        <v>104</v>
-      </c>
-      <c r="O5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1868,49 +1868,49 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
         <v>115</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>116</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G6" t="s">
         <v>50</v>
       </c>
       <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" t="s">
         <v>121</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" t="s">
         <v>123</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>124</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" t="s">
         <v>125</v>
       </c>
-      <c r="N6" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>126</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1918,49 +1918,49 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" t="s">
         <v>128</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" t="s">
         <v>134</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" t="s">
         <v>136</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>137</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" t="s">
         <v>138</v>
       </c>
-      <c r="N7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1968,49 +1968,49 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
         <v>141</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>142</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>44</v>
       </c>
       <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" t="s">
         <v>147</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" t="s">
         <v>149</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>150</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O8" t="s">
         <v>151</v>
       </c>
-      <c r="N8" t="s">
-        <v>151</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>152</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2018,49 +2018,49 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" t="s">
         <v>269</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D9" t="s">
-        <v>293</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
+        <v>272</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" t="s">
         <v>274</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" t="s">
         <v>276</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" t="s">
         <v>277</v>
       </c>
-      <c r="M9" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" t="s">
-        <v>169</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>278</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -2068,49 +2068,49 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
         <v>243</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="G10" t="s">
         <v>40</v>
       </c>
       <c r="H10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" t="s">
         <v>247</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
         <v>248</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>249</v>
       </c>
-      <c r="N10" t="s">
-        <v>250</v>
-      </c>
       <c r="O10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -2118,46 +2118,46 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" t="s">
         <v>154</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>155</v>
       </c>
-      <c r="D11" t="s">
-        <v>156</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
         <v>40</v>
       </c>
       <c r="H11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" t="s">
         <v>301</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" t="s">
         <v>303</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>304</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>305</v>
       </c>
-      <c r="O11" t="s">
-        <v>306</v>
-      </c>
       <c r="Q11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -2165,49 +2165,49 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
         <v>161</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>162</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="G12" t="s">
         <v>43</v>
       </c>
       <c r="H12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" t="s">
         <v>166</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>168</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
+        <v>168</v>
+      </c>
+      <c r="O12" t="s">
         <v>169</v>
       </c>
-      <c r="N12" t="s">
-        <v>169</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>170</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -2215,49 +2215,49 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
         <v>172</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>173</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G13" t="s">
         <v>43</v>
       </c>
       <c r="H13" t="s">
+        <v>176</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" t="s">
         <v>178</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" t="s">
         <v>180</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>181</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" t="s">
         <v>182</v>
       </c>
-      <c r="N13" t="s">
-        <v>182</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -2265,49 +2265,49 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
         <v>185</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>186</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="G14" t="s">
         <v>44</v>
       </c>
       <c r="H14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J14" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" t="s">
         <v>191</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>192</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
+        <v>192</v>
+      </c>
+      <c r="O14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" t="s">
         <v>193</v>
-      </c>
-      <c r="N14" t="s">
-        <v>193</v>
-      </c>
-      <c r="O14" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2315,49 +2315,49 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="s">
         <v>207</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>208</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="G15" t="s">
         <v>50</v>
       </c>
       <c r="H15" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="L15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -2365,49 +2365,49 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" t="s">
         <v>213</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>214</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="G16" t="s">
         <v>49</v>
       </c>
       <c r="H16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" t="s">
         <v>219</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" t="s">
         <v>221</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>222</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>250</v>
+      </c>
+      <c r="O16" t="s">
         <v>223</v>
       </c>
-      <c r="N16" t="s">
-        <v>251</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>224</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -2415,49 +2415,49 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
         <v>226</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>227</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="G17" t="s">
         <v>48</v>
       </c>
       <c r="H17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" t="s">
         <v>232</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" t="s">
+        <v>235</v>
+      </c>
+      <c r="M17" t="s">
         <v>234</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" t="s">
         <v>236</v>
       </c>
-      <c r="M17" t="s">
-        <v>235</v>
-      </c>
-      <c r="N17" t="s">
-        <v>252</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>237</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -2465,49 +2465,49 @@
         <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G18" t="s">
         <v>44</v>
       </c>
       <c r="H18" t="s">
+        <v>282</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J18" t="s">
+        <v>286</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" t="s">
+        <v>289</v>
+      </c>
+      <c r="N18" t="s">
+        <v>288</v>
+      </c>
+      <c r="O18" t="s">
         <v>287</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="L18" t="s">
-        <v>285</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>290</v>
-      </c>
-      <c r="N18" t="s">
-        <v>289</v>
-      </c>
-      <c r="O18" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2515,49 +2515,49 @@
         <v>88</v>
       </c>
       <c r="B19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" t="s">
         <v>195</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D19" t="s">
-        <v>297</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>48</v>
       </c>
       <c r="H19" t="s">
+        <v>198</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" t="s">
         <v>200</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" t="s">
         <v>202</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>203</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
+        <v>203</v>
+      </c>
+      <c r="O19" t="s">
         <v>204</v>
       </c>
-      <c r="N19" t="s">
-        <v>204</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>205</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludovic.cao\Documents\Ultimate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4482C2-4E39-4238-A558-CE5D89BFE920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA01C1-3364-444A-B160-854ABDF40140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="311">
   <si>
     <t>DataOrigin</t>
   </si>
@@ -959,7 +959,16 @@
     <t>https://www.facebook.com/tournoidelachips</t>
   </si>
   <si>
-    <t>~/img/mainpage4.jpg</t>
+    <t>~/img/mainpage5.jpg</t>
+  </si>
+  <si>
+    <t>5v5M-A2022</t>
+  </si>
+  <si>
+    <t>https://ugm.ultimatecentral.com/fr_ca/e/ligues-recreatives-automne-2022/standings/stage/145059/division/Montr%C3%A9al+Mercredi+-+Henri-Julien</t>
+  </si>
+  <si>
+    <t>2,5,7,10,25,27,36,53,55,66,77,88</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1059,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}" name="Table2" displayName="Table2" ref="A1:F5" totalsRowShown="0">
-  <autoFilter ref="A1:F5" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}" name="Table2" displayName="Table2" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{07CBF635-0E38-40DF-86DA-F0D10C247F1F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4351D8DD-9558-4605-8262-1875E0227200}" name="Key"/>
     <tableColumn id="2" xr3:uid="{8372E192-9212-416B-AF7D-DAAA9A70E6D0}" name="Year"/>
@@ -1401,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CAA6E1-B02E-4DE6-B4B4-577DD4F1FB45}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89CEBC-3C19-4A42-9B8A-86C0924A81EF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,30 +1501,30 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="B3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -1524,58 +1533,78 @@
         <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>2021</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5">
+        <v>2021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>111</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2020</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{04E7B529-6CF4-4D0D-9EE9-8BC4209A7E16}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{E758497A-287B-486F-9126-2EF4ACAD4D48}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{BD26994F-5A7C-4545-8A36-D8771E8B5DE7}"/>
-    <hyperlink ref="E2" r:id="rId4" xr:uid="{DB79788A-34CE-4EFF-B352-E03B48B5039C}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{04E7B529-6CF4-4D0D-9EE9-8BC4209A7E16}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{E758497A-287B-486F-9126-2EF4ACAD4D48}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{BD26994F-5A7C-4545-8A36-D8771E8B5DE7}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{DB79788A-34CE-4EFF-B352-E03B48B5039C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1588,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96815FA3-9421-4216-B9D0-1EAF4A6293D5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PirrrDaFag\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CA01C1-3364-444A-B160-854ABDF40140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E539F7-B680-4CB4-8CC7-BFA9C57389DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{7EDEE74B-8674-48D7-BDAC-9F6442BD8AEB}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Lineups" sheetId="1" r:id="rId2"/>
     <sheet name="Players" sheetId="2" r:id="rId3"/>
     <sheet name="ZodiacSigns" sheetId="4" r:id="rId4"/>
+    <sheet name="Images" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="317">
   <si>
     <t>DataOrigin</t>
   </si>
@@ -969,6 +970,24 @@
   </si>
   <si>
     <t>2,5,7,10,25,27,36,53,55,66,77,88</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>tag1,tag2</t>
+  </si>
+  <si>
+    <t>~/img/ludoviccao2.jpg</t>
+  </si>
+  <si>
+    <t>tag2</t>
   </si>
 </sst>
 </file>
@@ -1018,11 +1037,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,6 +1126,19 @@
     <tableColumn id="1" xr3:uid="{14289286-9A70-41FA-9ABC-1953C633BC58}" name="Key"/>
     <tableColumn id="2" xr3:uid="{AEC90668-E5BD-4415-A315-4B544F292805}" name="Name_FR"/>
     <tableColumn id="3" xr3:uid="{E938DCCC-FC86-48CE-908F-E655AB784E68}" name="Name_EN"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C3D6E7A-1397-4FE4-9745-87F934A9E68D}" name="Table5" displayName="Table5" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{8C3D6E7A-1397-4FE4-9745-87F934A9E68D}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{810EF541-5FBB-492C-A58B-000934A9CDD6}" name="Key"/>
+    <tableColumn id="2" xr3:uid="{7C09F2D9-C749-4AAE-AABF-D1CC99153DA2}" name="Url"/>
+    <tableColumn id="3" xr3:uid="{5343E473-57E2-4451-8B79-6651850C8924}" name="Date"/>
+    <tableColumn id="4" xr3:uid="{A64765FA-C383-4637-9838-1BA20D6453C4}" name="Tags"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1617,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96815FA3-9421-4216-B9D0-1EAF4A6293D5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2823,4 +2856,68 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C68B529-428E-4AD8-AA44-C19036D0A32E}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44562</v>
+      </c>
+      <c r="D2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44563</v>
+      </c>
+      <c r="D3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>